--- a/5 Lora-nodes Espressif Systems esp32/1 p1_smart_meter_TTN_Apeldoorn/Settings smart meter.xlsx
+++ b/5 Lora-nodes Espressif Systems esp32/1 p1_smart_meter_TTN_Apeldoorn/Settings smart meter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evers\Documents\IMAGINE-IOT\Imagine-IoT\Imagine-IoT\5 Lora-nodes Espressif Systems esp32\1 p1_smart_meter_TTN_Apeldoorn\esp32-p1-node-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evers\Documents\IMAGINE-IOT\Imagine-IoT\Imagine-IoT\5 Lora-nodes Espressif Systems esp32\1 p1_smart_meter_TTN_Apeldoorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5BF47-90C7-4000-A142-415FD30A89CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A11C6F4-0685-4E41-B496-8605A80F15F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C9E6696-C471-4A26-A1CC-CE63D0FB864B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C9E6696-C471-4A26-A1CC-CE63D0FB864B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -324,6 +330,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,7 +652,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -737,10 +746,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
